--- a/data/ifrs/페이퍼코리아.xlsx
+++ b/data/ifrs/페이퍼코리아.xlsx
@@ -624,103 +624,103 @@
         <v>35</v>
       </c>
       <c r="D2">
-        <v>2062060</v>
+        <v>2506</v>
       </c>
       <c r="E2">
-        <v>250251</v>
+        <v>-116</v>
       </c>
       <c r="F2">
-        <v>250251</v>
+        <v>-116</v>
       </c>
       <c r="G2">
-        <v>278750</v>
+        <v>-299</v>
       </c>
       <c r="H2">
-        <v>233944</v>
+        <v>-243</v>
       </c>
       <c r="I2">
-        <v>230825</v>
+        <v>-244</v>
       </c>
       <c r="J2">
-        <v>3119</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>2304230</v>
+        <v>5046</v>
       </c>
       <c r="L2">
-        <v>623348</v>
+        <v>3427</v>
       </c>
       <c r="M2">
-        <v>1680882</v>
+        <v>1619</v>
       </c>
       <c r="N2">
-        <v>1621817</v>
+        <v>1599</v>
       </c>
       <c r="O2">
-        <v>59065</v>
+        <v>21</v>
       </c>
       <c r="P2">
-        <v>8975</v>
+        <v>642</v>
       </c>
       <c r="Q2">
-        <v>369754</v>
+        <v>5</v>
       </c>
       <c r="R2">
-        <v>-328064</v>
+        <v>-34</v>
       </c>
       <c r="S2">
-        <v>-30571</v>
+        <v>8</v>
       </c>
       <c r="T2">
-        <v>220429</v>
+        <v>70</v>
       </c>
       <c r="U2">
-        <v>149324</v>
+        <v>-65</v>
       </c>
       <c r="V2">
-        <v>112655</v>
+        <v>2509</v>
       </c>
       <c r="W2">
-        <v>12.14</v>
+        <v>-4.61</v>
       </c>
       <c r="X2">
-        <v>11.34</v>
+        <v>-9.699999999999999</v>
       </c>
       <c r="Y2">
-        <v>15.06</v>
+        <v>-18.07</v>
       </c>
       <c r="Z2">
-        <v>10.53</v>
+        <v>-5.08</v>
       </c>
       <c r="AA2">
-        <v>37.09</v>
+        <v>211.58</v>
       </c>
       <c r="AB2">
-        <v>19379.47</v>
+        <v>57.74</v>
       </c>
       <c r="AC2">
-        <v>2713</v>
+        <v>-1582</v>
       </c>
       <c r="AD2">
-        <v>9.779999999999999</v>
+        <v>-3.92</v>
       </c>
       <c r="AE2">
-        <v>21664</v>
+        <v>9746</v>
       </c>
       <c r="AF2">
-        <v>1.23</v>
+        <v>0.64</v>
       </c>
       <c r="AG2">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>7364966850</v>
+        <v>16578736</v>
       </c>
     </row>
     <row r="3" spans="1:36">
@@ -734,103 +734,103 @@
         <v>36</v>
       </c>
       <c r="D3">
-        <v>2006535</v>
+        <v>2448</v>
       </c>
       <c r="E3">
-        <v>264134</v>
+        <v>-464</v>
       </c>
       <c r="F3">
-        <v>264134</v>
+        <v>-464</v>
       </c>
       <c r="G3">
-        <v>259610</v>
+        <v>-746</v>
       </c>
       <c r="H3">
-        <v>190601</v>
+        <v>-593</v>
       </c>
       <c r="I3">
-        <v>186946</v>
+        <v>-593</v>
       </c>
       <c r="J3">
-        <v>3655</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>2421795</v>
+        <v>5547</v>
       </c>
       <c r="L3">
-        <v>631197</v>
+        <v>4371</v>
       </c>
       <c r="M3">
-        <v>1790598</v>
+        <v>1176</v>
       </c>
       <c r="N3">
-        <v>1728768</v>
+        <v>1157</v>
       </c>
       <c r="O3">
-        <v>61830</v>
+        <v>19</v>
       </c>
       <c r="P3">
-        <v>8975</v>
+        <v>753</v>
       </c>
       <c r="Q3">
-        <v>400618</v>
+        <v>-97</v>
       </c>
       <c r="R3">
-        <v>-271678</v>
+        <v>-185</v>
       </c>
       <c r="S3">
-        <v>-65735</v>
+        <v>578</v>
       </c>
       <c r="T3">
-        <v>258802</v>
+        <v>122</v>
       </c>
       <c r="U3">
-        <v>141815</v>
+        <v>-218</v>
       </c>
       <c r="V3">
-        <v>128740</v>
+        <v>3023</v>
       </c>
       <c r="W3">
-        <v>13.16</v>
+        <v>-18.96</v>
       </c>
       <c r="X3">
-        <v>9.5</v>
+        <v>-24.22</v>
       </c>
       <c r="Y3">
-        <v>11.16</v>
+        <v>-43.06</v>
       </c>
       <c r="Z3">
-        <v>8.07</v>
+        <v>-11.19</v>
       </c>
       <c r="AA3">
-        <v>35.25</v>
+        <v>371.61</v>
       </c>
       <c r="AB3">
-        <v>21117.88</v>
+        <v>-26.77</v>
       </c>
       <c r="AC3">
-        <v>2198</v>
+        <v>-3328</v>
       </c>
       <c r="AD3">
-        <v>11.47</v>
+        <v>-1.71</v>
       </c>
       <c r="AE3">
-        <v>23715</v>
+        <v>6006</v>
       </c>
       <c r="AF3">
-        <v>1.06</v>
+        <v>0.95</v>
       </c>
       <c r="AG3">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>16.42</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>7364966850</v>
+        <v>19443468</v>
       </c>
     </row>
     <row r="4" spans="1:36">
@@ -844,103 +844,103 @@
         <v>37</v>
       </c>
       <c r="D4">
-        <v>2018667</v>
+        <v>4219</v>
       </c>
       <c r="E4">
-        <v>292407</v>
+        <v>-223</v>
       </c>
       <c r="F4">
-        <v>292407</v>
+        <v>-223</v>
       </c>
       <c r="G4">
-        <v>307137</v>
+        <v>-448</v>
       </c>
       <c r="H4">
-        <v>227261</v>
+        <v>-371</v>
       </c>
       <c r="I4">
-        <v>224157</v>
+        <v>-372</v>
       </c>
       <c r="J4">
-        <v>3104</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>2621743</v>
+        <v>5419</v>
       </c>
       <c r="L4">
-        <v>692113</v>
+        <v>4232</v>
       </c>
       <c r="M4">
-        <v>1929630</v>
+        <v>1187</v>
       </c>
       <c r="N4">
-        <v>1864243</v>
+        <v>1166</v>
       </c>
       <c r="O4">
-        <v>65387</v>
+        <v>21</v>
       </c>
       <c r="P4">
-        <v>8975</v>
+        <v>1122</v>
       </c>
       <c r="Q4">
-        <v>473856</v>
+        <v>-322</v>
       </c>
       <c r="R4">
-        <v>-296587</v>
+        <v>-69</v>
       </c>
       <c r="S4">
-        <v>-86695</v>
+        <v>211</v>
       </c>
       <c r="T4">
-        <v>241430</v>
+        <v>56</v>
       </c>
       <c r="U4">
-        <v>232427</v>
+        <v>-377</v>
       </c>
       <c r="V4">
-        <v>152824</v>
+        <v>2878</v>
       </c>
       <c r="W4">
-        <v>14.49</v>
+        <v>-5.29</v>
       </c>
       <c r="X4">
-        <v>11.26</v>
+        <v>-8.789999999999999</v>
       </c>
       <c r="Y4">
-        <v>12.48</v>
+        <v>-32.03</v>
       </c>
       <c r="Z4">
-        <v>9.01</v>
+        <v>-6.77</v>
       </c>
       <c r="AA4">
-        <v>35.87</v>
+        <v>356.38</v>
       </c>
       <c r="AB4">
-        <v>22004.14</v>
+        <v>-44.84</v>
       </c>
       <c r="AC4">
-        <v>2735</v>
+        <v>-1721</v>
       </c>
       <c r="AD4">
-        <v>13.18</v>
+        <v>-2.66</v>
       </c>
       <c r="AE4">
-        <v>26636</v>
+        <v>4380</v>
       </c>
       <c r="AF4">
-        <v>1.35</v>
+        <v>1.05</v>
       </c>
       <c r="AG4">
-        <v>570</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>1.58</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>17.81</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>7033966850</v>
+        <v>26803263</v>
       </c>
     </row>
     <row r="5" spans="1:36">
@@ -954,103 +954,103 @@
         <v>38</v>
       </c>
       <c r="D5">
-        <v>2395754</v>
+        <v>5565</v>
       </c>
       <c r="E5">
-        <v>536450</v>
+        <v>-394</v>
       </c>
       <c r="F5">
-        <v>536450</v>
+        <v>-394</v>
       </c>
       <c r="G5">
-        <v>561960</v>
+        <v>-1105</v>
       </c>
       <c r="H5">
-        <v>421867</v>
+        <v>-1073</v>
       </c>
       <c r="I5">
-        <v>413446</v>
+        <v>-1062</v>
       </c>
       <c r="J5">
-        <v>8422</v>
+        <v>-6</v>
       </c>
       <c r="K5">
-        <v>3017521</v>
+        <v>6615</v>
       </c>
       <c r="L5">
-        <v>872607</v>
+        <v>6050</v>
       </c>
       <c r="M5">
-        <v>2144914</v>
+        <v>565</v>
       </c>
       <c r="N5">
-        <v>2072134</v>
+        <v>557</v>
       </c>
       <c r="O5">
-        <v>72780</v>
+        <v>15</v>
       </c>
       <c r="P5">
-        <v>8975</v>
+        <v>271</v>
       </c>
       <c r="Q5">
-        <v>621620</v>
+        <v>-27</v>
       </c>
       <c r="R5">
-        <v>-493852</v>
+        <v>-1388</v>
       </c>
       <c r="S5">
-        <v>-125609</v>
+        <v>1502</v>
       </c>
       <c r="T5">
-        <v>427922</v>
+        <v>660</v>
       </c>
       <c r="U5">
-        <v>193698</v>
+        <v>-687</v>
       </c>
       <c r="V5">
-        <v>188140</v>
+        <v>3947</v>
       </c>
       <c r="W5">
-        <v>22.39</v>
+        <v>-7.08</v>
       </c>
       <c r="X5">
-        <v>17.61</v>
+        <v>-19.29</v>
       </c>
       <c r="Y5">
-        <v>21.01</v>
+        <v>-123.19</v>
       </c>
       <c r="Z5">
-        <v>14.96</v>
+        <v>-17.84</v>
       </c>
       <c r="AA5">
-        <v>40.68</v>
+        <v>1070.7</v>
       </c>
       <c r="AB5">
-        <v>24536.12</v>
+        <v>-100.35</v>
       </c>
       <c r="AC5">
-        <v>5421</v>
+        <v>-3531</v>
       </c>
       <c r="AD5">
-        <v>9.4</v>
+        <v>-0.35</v>
       </c>
       <c r="AE5">
-        <v>30427</v>
+        <v>1031</v>
       </c>
       <c r="AF5">
-        <v>1.67</v>
+        <v>1.19</v>
       </c>
       <c r="AG5">
-        <v>850</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>14.09</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>6454924700</v>
+        <v>54216657</v>
       </c>
     </row>
     <row r="6" spans="1:36">
@@ -1064,97 +1064,97 @@
         <v>39</v>
       </c>
       <c r="D6">
-        <v>2437714</v>
+        <v>4123</v>
       </c>
       <c r="E6">
-        <v>588867</v>
+        <v>22</v>
       </c>
       <c r="F6">
-        <v>588867</v>
+        <v>22</v>
       </c>
       <c r="G6">
-        <v>611600</v>
+        <v>-271</v>
       </c>
       <c r="H6">
-        <v>443449</v>
+        <v>-381</v>
       </c>
       <c r="I6">
-        <v>438909</v>
+        <v>-381</v>
       </c>
       <c r="K6">
-        <v>3393572</v>
+        <v>5884</v>
       </c>
       <c r="L6">
-        <v>916041</v>
+        <v>5606</v>
       </c>
       <c r="M6">
-        <v>2477532</v>
+        <v>279</v>
       </c>
       <c r="N6">
-        <v>2400690</v>
+        <v>278</v>
       </c>
       <c r="P6">
-        <v>8975</v>
+        <v>367</v>
       </c>
       <c r="Q6">
-        <v>670319</v>
+        <v>-198</v>
       </c>
       <c r="R6">
-        <v>-522405</v>
+        <v>-158</v>
       </c>
       <c r="S6">
-        <v>-150902</v>
+        <v>395</v>
       </c>
       <c r="T6">
-        <v>295564</v>
+        <v>387</v>
       </c>
       <c r="U6">
-        <v>374755</v>
+        <v>-586</v>
       </c>
       <c r="V6">
-        <v>146671</v>
+        <v>4216</v>
       </c>
       <c r="W6">
-        <v>24.16</v>
+        <v>0.53</v>
       </c>
       <c r="X6">
-        <v>18.19</v>
+        <v>-9.23</v>
       </c>
       <c r="Y6">
-        <v>19.63</v>
+        <v>-91.06</v>
       </c>
       <c r="Z6">
-        <v>13.83</v>
+        <v>-6.09</v>
       </c>
       <c r="AA6">
-        <v>36.97</v>
+        <v>2012.65</v>
       </c>
       <c r="AB6">
-        <v>27531.92</v>
+        <v>-172.39</v>
       </c>
       <c r="AC6">
-        <v>6024</v>
+        <v>-699</v>
       </c>
       <c r="AD6">
-        <v>6.42</v>
+        <v>-1.34</v>
       </c>
       <c r="AE6">
-        <v>35342</v>
+        <v>380</v>
       </c>
       <c r="AF6">
-        <v>1.09</v>
+        <v>2.46</v>
       </c>
       <c r="AG6">
-        <v>1416</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>3.66</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>21.92</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>5969782550</v>
+        <v>73374054</v>
       </c>
     </row>
     <row r="7" spans="1:36">
@@ -1167,87 +1167,6 @@
       <c r="C7" t="s">
         <v>40</v>
       </c>
-      <c r="D7">
-        <v>2314725</v>
-      </c>
-      <c r="E7">
-        <v>271526</v>
-      </c>
-      <c r="G7">
-        <v>300100</v>
-      </c>
-      <c r="H7">
-        <v>219616</v>
-      </c>
-      <c r="I7">
-        <v>217026</v>
-      </c>
-      <c r="K7">
-        <v>3543848</v>
-      </c>
-      <c r="L7">
-        <v>915230</v>
-      </c>
-      <c r="M7">
-        <v>2628618</v>
-      </c>
-      <c r="N7">
-        <v>2546327</v>
-      </c>
-      <c r="P7">
-        <v>8979</v>
-      </c>
-      <c r="Q7">
-        <v>453010</v>
-      </c>
-      <c r="R7">
-        <v>-310690</v>
-      </c>
-      <c r="S7">
-        <v>-106152</v>
-      </c>
-      <c r="T7">
-        <v>282087</v>
-      </c>
-      <c r="U7">
-        <v>183465</v>
-      </c>
-      <c r="W7">
-        <v>11.73</v>
-      </c>
-      <c r="X7">
-        <v>9.49</v>
-      </c>
-      <c r="Y7">
-        <v>8.77</v>
-      </c>
-      <c r="Z7">
-        <v>6.33</v>
-      </c>
-      <c r="AA7">
-        <v>34.82</v>
-      </c>
-      <c r="AC7">
-        <v>3195</v>
-      </c>
-      <c r="AD7">
-        <v>17.37</v>
-      </c>
-      <c r="AE7">
-        <v>37486</v>
-      </c>
-      <c r="AF7">
-        <v>1.48</v>
-      </c>
-      <c r="AG7">
-        <v>1419</v>
-      </c>
-      <c r="AH7">
-        <v>2.56</v>
-      </c>
-      <c r="AI7">
-        <v>39.02</v>
-      </c>
     </row>
     <row r="8" spans="1:36">
       <c r="A8" s="1">
@@ -1259,87 +1178,6 @@
       <c r="C8" t="s">
         <v>41</v>
       </c>
-      <c r="D8">
-        <v>2527738</v>
-      </c>
-      <c r="E8">
-        <v>396877</v>
-      </c>
-      <c r="G8">
-        <v>425472</v>
-      </c>
-      <c r="H8">
-        <v>309790</v>
-      </c>
-      <c r="I8">
-        <v>306028</v>
-      </c>
-      <c r="K8">
-        <v>3826390</v>
-      </c>
-      <c r="L8">
-        <v>996832</v>
-      </c>
-      <c r="M8">
-        <v>2829558</v>
-      </c>
-      <c r="N8">
-        <v>2745657</v>
-      </c>
-      <c r="P8">
-        <v>8979</v>
-      </c>
-      <c r="Q8">
-        <v>557644</v>
-      </c>
-      <c r="R8">
-        <v>-383645</v>
-      </c>
-      <c r="S8">
-        <v>-89933</v>
-      </c>
-      <c r="T8">
-        <v>308270</v>
-      </c>
-      <c r="U8">
-        <v>259147</v>
-      </c>
-      <c r="W8">
-        <v>15.7</v>
-      </c>
-      <c r="X8">
-        <v>12.26</v>
-      </c>
-      <c r="Y8">
-        <v>11.57</v>
-      </c>
-      <c r="Z8">
-        <v>8.41</v>
-      </c>
-      <c r="AA8">
-        <v>35.23</v>
-      </c>
-      <c r="AC8">
-        <v>4505</v>
-      </c>
-      <c r="AD8">
-        <v>12.52</v>
-      </c>
-      <c r="AE8">
-        <v>40421</v>
-      </c>
-      <c r="AF8">
-        <v>1.4</v>
-      </c>
-      <c r="AG8">
-        <v>1502</v>
-      </c>
-      <c r="AH8">
-        <v>2.66</v>
-      </c>
-      <c r="AI8">
-        <v>29.3</v>
-      </c>
     </row>
     <row r="9" spans="1:36">
       <c r="A9" s="1">
@@ -1350,87 +1188,6 @@
       </c>
       <c r="C9" t="s">
         <v>42</v>
-      </c>
-      <c r="D9">
-        <v>2765706</v>
-      </c>
-      <c r="E9">
-        <v>529840</v>
-      </c>
-      <c r="G9">
-        <v>565159</v>
-      </c>
-      <c r="H9">
-        <v>413080</v>
-      </c>
-      <c r="I9">
-        <v>408159</v>
-      </c>
-      <c r="K9">
-        <v>4192070</v>
-      </c>
-      <c r="L9">
-        <v>1052638</v>
-      </c>
-      <c r="M9">
-        <v>3139432</v>
-      </c>
-      <c r="N9">
-        <v>3054491</v>
-      </c>
-      <c r="P9">
-        <v>8979</v>
-      </c>
-      <c r="Q9">
-        <v>675050</v>
-      </c>
-      <c r="R9">
-        <v>-412467</v>
-      </c>
-      <c r="S9">
-        <v>-111205</v>
-      </c>
-      <c r="T9">
-        <v>333579</v>
-      </c>
-      <c r="U9">
-        <v>355498</v>
-      </c>
-      <c r="W9">
-        <v>19.16</v>
-      </c>
-      <c r="X9">
-        <v>14.94</v>
-      </c>
-      <c r="Y9">
-        <v>14.07</v>
-      </c>
-      <c r="Z9">
-        <v>10.3</v>
-      </c>
-      <c r="AA9">
-        <v>33.53</v>
-      </c>
-      <c r="AC9">
-        <v>6009</v>
-      </c>
-      <c r="AD9">
-        <v>9.390000000000001</v>
-      </c>
-      <c r="AE9">
-        <v>44967</v>
-      </c>
-      <c r="AF9">
-        <v>1.25</v>
-      </c>
-      <c r="AG9">
-        <v>1547</v>
-      </c>
-      <c r="AH9">
-        <v>2.74</v>
-      </c>
-      <c r="AI9">
-        <v>22.63</v>
       </c>
     </row>
   </sheetData>
